--- a/data/income_statement/2digits/size/26_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/26_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>26-Manufacture of computer, electronic and optical products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>26-Manufacture of computer, electronic and optical products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,293 +841,333 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>131300.88334</v>
+        <v>142767.18921</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>189702.12876</v>
+        <v>199281.5231</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>115310.50702</v>
+        <v>125662.5328</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>104119.92161</v>
+        <v>119634.17976</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>96881.80960999998</v>
+        <v>114353.62743</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>98078.2789</v>
+        <v>121266.14876</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>89015.06362999999</v>
+        <v>109891.97122</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>115654.75629</v>
+        <v>144568.6236</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>178724.30352</v>
+        <v>216927.01288</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>414515.02661</v>
+        <v>468663.54633</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>415871.41586</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>500395.5062299999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>603659.938</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>125251.90312</v>
+        <v>135623.36437</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>183875.52112</v>
+        <v>191362.43745</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>106986.32466</v>
+        <v>116517.1012</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>93288.8247</v>
+        <v>108029.43316</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>89578.03302000002</v>
+        <v>104540.81196</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>88758.36199</v>
+        <v>109851.53619</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>82112.26976000001</v>
+        <v>100914.67856</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>106716.734</v>
+        <v>132995.46061</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>165326.36437</v>
+        <v>197832.89548</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>362158.63481</v>
+        <v>406970.1481699999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>360709.57644</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>433023.7617799999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>516319.436</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>3913.63156</v>
+        <v>4367.67238</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>4474.32379</v>
+        <v>5356.232999999999</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>6797.480549999999</v>
+        <v>7116.576700000001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>8470.92643</v>
+        <v>8992.28693</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>5206.69263</v>
+        <v>7315.55965</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>7328.38166</v>
+        <v>9152.266950000001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>4853.51118</v>
+        <v>6189.783369999999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>6411.643720000001</v>
+        <v>8022.10084</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>7739.394760000001</v>
+        <v>11587.39861</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>35675.30945</v>
+        <v>43020.69220999999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>33009.37596</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>41741.55</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>68247.495</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>2135.34866</v>
+        <v>2776.15246</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>1352.28385</v>
+        <v>2562.85265</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1526.70181</v>
+        <v>2028.8549</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>2360.17048</v>
+        <v>2612.45967</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>2097.08396</v>
+        <v>2497.25582</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1991.53525</v>
+        <v>2262.34562</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>2049.28269</v>
+        <v>2787.50929</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>2526.37857</v>
+        <v>3551.062149999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>5658.54439</v>
+        <v>7506.718789999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>16681.08235</v>
+        <v>18672.70595</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>22152.46346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>25630.19445</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>19093.007</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1687.6879</v>
+        <v>1785.72777</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2096.37434</v>
+        <v>2425.46004</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1945.25225</v>
+        <v>1980.32678</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>936.1374599999999</v>
+        <v>1189.88443</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1083.11508</v>
+        <v>1320.49105</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1137.16304</v>
+        <v>2229.97245</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>350.65666</v>
+        <v>1795.54871</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1307.71466</v>
+        <v>1661.52596</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>683.14392</v>
+        <v>1125.75318</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>4812.95924</v>
+        <v>5140.75513</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>6092.01234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>7206.925990000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>16841.243</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1491.68333</v>
+        <v>1573.57583</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1993.82033</v>
+        <v>2322.09654</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1836.87423</v>
+        <v>1861.05797</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>764.5172299999998</v>
+        <v>1011.83136</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>988.55797</v>
+        <v>1217.45833</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1021.65816</v>
+        <v>2107.11564</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>324.98556</v>
+        <v>1659.99059</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1264.76081</v>
+        <v>1586.46354</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>651.4680800000001</v>
+        <v>1086.78763</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>3341.76396</v>
+        <v>3638.12364</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>5923.476009999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>6482.81784</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>16371.692</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>179.28627</v>
+        <v>181.24602</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>92.24551000000001</v>
+        <v>92.30500000000001</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>80.65488999999999</v>
+        <v>91.54568</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>165.0616</v>
+        <v>171.49444</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>91.61672</v>
+        <v>100.09233</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>74.79092</v>
+        <v>81.23620000000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>23.72452</v>
+        <v>132.57522</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>12.69661</v>
+        <v>12.82861</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>28.00628</v>
+        <v>35.29599</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1279.10685</v>
+        <v>1310.54306</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>83.54447</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>624.41993</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>360.338</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>16.7183</v>
+        <v>30.90592</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>10.3085</v>
+        <v>11.0585</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>27.72313</v>
@@ -1238,13 +1179,13 @@
         <v>2.94039</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>40.71396</v>
+        <v>41.62061</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1.94658</v>
+        <v>2.9829</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>30.25724</v>
+        <v>62.23381</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>3.669560000000001</v>
@@ -1253,559 +1194,634 @@
         <v>192.08843</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>84.99185999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>99.68822</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>109.213</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>129613.19544</v>
+        <v>140981.46144</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>187605.75442</v>
+        <v>196856.06306</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>113365.25477</v>
+        <v>123682.20602</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>103183.78415</v>
+        <v>118444.29533</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>95798.69453000001</v>
+        <v>113033.13638</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>96941.11586000001</v>
+        <v>119036.17631</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>88664.40697</v>
+        <v>108096.42251</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>114347.04163</v>
+        <v>142907.09764</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>178041.1596</v>
+        <v>215801.2597</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>409702.06737</v>
+        <v>463522.7912</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>409779.40352</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>493188.58024</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>586818.6949999999</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>105361.4718</v>
+        <v>113862.21848</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>162351.42309</v>
+        <v>169561.11047</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>88108.93505000001</v>
+        <v>95603.14311</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>74189.08749999999</v>
+        <v>85277.07319</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>68735.79303</v>
+        <v>81633.48460000001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>70441.34417</v>
+        <v>87878.84929</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>62179.51558</v>
+        <v>76378.33649000002</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>77234.30590000001</v>
+        <v>94750.13310000001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>138247.52147</v>
+        <v>160656.25301</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>294046.08411</v>
+        <v>328380.99625</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>283802.17919</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>341194.09879</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>400587.286</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>20231.50125</v>
+        <v>23002.055</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>32468.95201</v>
+        <v>35722.98266</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>32533.69679</v>
+        <v>36806.93184999999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>30934.32423</v>
+        <v>40339.06832999999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>31993.84771</v>
+        <v>39806.42681</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>28140.65321</v>
+        <v>40445.69171</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>28032.85987</v>
+        <v>38011.72724</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>33571.68726</v>
+        <v>45326.4162</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>73333.76951</v>
+        <v>88819.24879000001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>116600.24154</v>
+        <v>134415.89168</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>109659.72993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>141108.53359</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>160690.56</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>75125.6945</v>
+        <v>80218.0876</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>120365.4759</v>
+        <v>123025.00052</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>42208.13438</v>
+        <v>44836.07089</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>29638.10131</v>
+        <v>30733.83426</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>21880.67295</v>
+        <v>26332.17697</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>29861.293</v>
+        <v>33502.47347</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>26361.9424</v>
+        <v>28796.80063</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>32011.97977</v>
+        <v>35546.63721</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>48065.00893</v>
+        <v>52185.18262</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>119767.21439</v>
+        <v>132362.4658</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>128018.94866</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>148625.34833</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>186198.902</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>9828.947320000001</v>
+        <v>10362.45856</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>9332.32258</v>
+        <v>10173.35356</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>11535.43411</v>
+        <v>12068.82884</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>13575.69573</v>
+        <v>14163.20437</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>14696.97425</v>
+        <v>15257.12356</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>12317.99947</v>
+        <v>13424.93848</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>7233.214</v>
+        <v>8896.523350000001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>11130.97898</v>
+        <v>13047.37124</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>13698.43772</v>
+        <v>16312.62247</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>53650.58583</v>
+        <v>57288.90366</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>44201.26916</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>49102.43928</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>47952.303</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>175.32873</v>
+        <v>279.6173199999999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>184.6726</v>
+        <v>639.77373</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1831.66977</v>
+        <v>1891.31153</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>40.96623</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>164.29812</v>
+        <v>237.75726</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>121.39849</v>
+        <v>505.74563</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>551.49931</v>
+        <v>673.28527</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>519.65989</v>
+        <v>829.70845</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>3150.30531</v>
+        <v>3339.19913</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>4028.04235</v>
+        <v>4313.73511</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1922.23144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2357.77759</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>5745.521</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>24251.72364</v>
+        <v>27119.24296</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>25254.33133</v>
+        <v>27294.95259</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>25256.31972</v>
+        <v>28079.06291</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>28994.69665</v>
+        <v>33167.22214</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>27062.9015</v>
+        <v>31399.65178</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>26499.77169</v>
+        <v>31157.32702</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>26484.89139</v>
+        <v>31718.08602</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>37112.73573000001</v>
+        <v>48156.96454000001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>39793.63812999999</v>
+        <v>55145.00668999999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>115655.98326</v>
+        <v>135141.79495</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>125977.22433</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>151994.48145</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>186231.409</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>21382.91886</v>
+        <v>24728.84777</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>19603.50751</v>
+        <v>24334.30825</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>22368.85188</v>
+        <v>29655.47245</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>25381.63869</v>
+        <v>34912.20802000001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>25494.10571</v>
+        <v>34313.67180999999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>23835.55974</v>
+        <v>35837.92875</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>25082.03742</v>
+        <v>36272.99633</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>38110.44897</v>
+        <v>54849.96753</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>42175.63745</v>
+        <v>66040.75235000001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>87574.39663</v>
+        <v>113271.63159</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>124447.0195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>196709.79413</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>149458.739</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>985.6729399999999</v>
+        <v>985.67294</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>742.06613</v>
+        <v>747.03463</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>515.8600799999999</v>
+        <v>624.80324</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>876.4203299999999</v>
+        <v>1365.47222</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>2193.567880000001</v>
+        <v>2699.14425</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1803.75103</v>
+        <v>2368.22375</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2070.28104</v>
+        <v>2237.68194</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>2343.1768</v>
+        <v>3168.62457</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>4831.056259999999</v>
+        <v>5734.99966</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>10570.62065</v>
+        <v>11796.04793</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>7784.512129999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>9822.11133</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>10096.524</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>3947.7985</v>
+        <v>4376.95899</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>3144.62302</v>
+        <v>3538.82801</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>3013.66129</v>
+        <v>3952.84795</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>4104.77138</v>
+        <v>4878.59239</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>3705.31975</v>
+        <v>4823.77773</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>3017.7622</v>
+        <v>4613.71386</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>2810.96036</v>
+        <v>3980.93572</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>4069.25383</v>
+        <v>5673.23855</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>4913.001230000001</v>
+        <v>7335.191870000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>16339.90762</v>
+        <v>18356.58557</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>17932.44132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>58277.43673</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>26848.59</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>16449.44742</v>
+        <v>19366.21584</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>15716.81836</v>
+        <v>20048.44561</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>18839.33051</v>
+        <v>25077.82126</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>20400.44698</v>
+        <v>28668.14341</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>19595.21808</v>
+        <v>26790.74983</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>19014.04651</v>
+        <v>28855.99114</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>20200.79601999999</v>
+        <v>30054.37867</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>31698.01834</v>
+        <v>46008.10441</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>32431.57996</v>
+        <v>52970.56082000001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>60663.86836</v>
+        <v>83118.99809000001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>98730.06605000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>128610.24607</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>112513.625</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>2868.80478</v>
+        <v>2390.39519</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>5650.823820000001</v>
+        <v>2960.64434</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2887.46784</v>
+        <v>-1576.409540000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>3613.05796</v>
+        <v>-1744.98588</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1568.79579</v>
+        <v>-2914.020029999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2664.21195</v>
+        <v>-4680.60173</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1402.85397</v>
+        <v>-4554.910309999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-997.7132400000002</v>
+        <v>-6693.002990000001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-2381.99932</v>
+        <v>-10895.74566</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>28081.58663</v>
+        <v>21870.16336</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1530.20483</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-44715.31268</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>36772.67</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>856.74775</v>
+        <v>6474.65811</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1115.04385</v>
+        <v>10686.32311</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1011.17471</v>
+        <v>10777.324</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1243.37095</v>
+        <v>11209.74874</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1526.63376</v>
+        <v>12143.69798</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>738.6163</v>
+        <v>13527.13836</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>9895.916229999999</v>
+        <v>22613.37874</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1263.64251</v>
+        <v>10989.45515</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>1672.4456</v>
+        <v>16655.86396</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>9981.14516</v>
+        <v>109060.58517</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>6229.825339999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>89579.85339000002</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>100203.385</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>0</v>
+        <v>1921.68159</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0.001</v>
+        <v>4164.40129</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>0</v>
+        <v>3653.36797</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>0</v>
+        <v>2049.07407</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>0</v>
+        <v>5381.00661</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>0</v>
+        <v>6349.94616</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>0</v>
+        <v>443.53417</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>0</v>
+        <v>949.62067</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>0</v>
+        <v>8303.5</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>0</v>
+        <v>9688.50383</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>30000</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>4633.333</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1835,58 +1851,68 @@
         <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>0</v>
+        <v>1467.74736</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>4500.13117</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>169.23284</v>
+        <v>699.8594199999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>59.74972</v>
+        <v>1357.37521</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>59.07777</v>
+        <v>381.71284</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>156.17653</v>
+        <v>1077.99295</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>120.44614</v>
+        <v>1971.42479</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>72.45634999999999</v>
+        <v>2815.00691</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>147.20139</v>
+        <v>3413.94883</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>73.54799</v>
+        <v>3335.59066</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>192.08124</v>
+        <v>4293.45549</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>738.0807899999999</v>
+        <v>20464.99027</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1019.05383</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>14322.04537</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>3680.406</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>5.99929</v>
+        <v>8.479479999999999</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>4.3912</v>
@@ -1895,19 +1921,19 @@
         <v>0.0339</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>2.967</v>
+        <v>3.03275</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>2.50136</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>90.03801000000001</v>
+        <v>93.74801000000001</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>3.24788</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>0.07414</v>
+        <v>0.4095</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>1.42599</v>
@@ -1918,128 +1944,148 @@
       <c r="M29" s="48" t="n">
         <v>40.0402</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>0</v>
+        <v>62.97348</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>18.60937</v>
+        <v>107.68249</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>13.72913</v>
+        <v>1561.38968</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>7.145230000000001</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>0</v>
+        <v>25.79952</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>88.18966</v>
+        <v>91.68966</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>0</v>
+        <v>16.16002</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>0.46384</v>
+        <v>1243.4836</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>5.02238</v>
+        <v>1207.80288</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1.471</v>
+        <v>31.82618</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>4.1495</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>199.475</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>21.2937</v>
+        <v>22.73266</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>2.51286</v>
+        <v>5.04896</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>14.46404</v>
+        <v>44.12517999999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>5.14568</v>
+        <v>59.91883</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>5.85089</v>
+        <v>7.75492</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>19.54841</v>
+        <v>35.00637</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>22.82564</v>
+        <v>30.13918</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>39.78006</v>
+        <v>50.40874999999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>4.77236</v>
+        <v>22.06661</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>78.34523</v>
+        <v>804.7565800000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>31.61035</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>69.77841000000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>234.408</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>461.72215</v>
+        <v>3160.40308</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>267.30894</v>
+        <v>3903.70344</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>339.54619</v>
+        <v>1467.94069</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>484.54</v>
+        <v>2774.46549</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>568.31783</v>
+        <v>2695.88463</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>340.58596</v>
+        <v>1976.18966</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>3638.38557</v>
+        <v>7674.49437</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>707.0730299999998</v>
+        <v>4538.49145</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1026.87542</v>
+        <v>2674.94505</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>8428.883459999999</v>
+        <v>75380.33222999999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>3965.02422</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>38476.52323</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>89506.815</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2087,7 +2138,7 @@
         <v>0.001</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>0</v>
+        <v>0.0031</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>0</v>
@@ -2113,137 +2164,157 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>198.49977</v>
+        <v>598.5284</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>762.4677599999999</v>
+        <v>1143.71752</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>584.3236800000001</v>
+        <v>3668.75064</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>587.39651</v>
+        <v>5238.119420000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>758.72826</v>
+        <v>1988.53687</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>127.79791</v>
+        <v>2165.55159</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>6082.856110000001</v>
+        <v>11030.45465</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>429.54988</v>
+        <v>858.2969499999999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>434.3378700000001</v>
+        <v>144.7376</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>643.6951499999999</v>
+        <v>1131.75919</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1169.94724</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2167.18551</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1948.948</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>851.6661399999999</v>
+        <v>31448.38632000001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>448.40549</v>
+        <v>5974.880770000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>425.23055</v>
+        <v>1979.5131</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>987.7246</v>
+        <v>5550.25293</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>975.2567200000001</v>
+        <v>1444.10063</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>910.7433000000001</v>
+        <v>2775.39497</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>4241.89492</v>
+        <v>6623.341350000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>912.16202</v>
+        <v>11370.95609</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>1197.03941</v>
+        <v>3471.84251</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>7143.35983</v>
+        <v>94747.28201</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>3796.63109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>45677.43191</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>101398.275</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>281.65369</v>
+        <v>295.56615</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>21.69026</v>
+        <v>22.16031</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>103.95802</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>70.01705</v>
+        <v>72.68865</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>23.9252</v>
+        <v>24.1571</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>7.80938</v>
+        <v>26.85084</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2.06642</v>
+        <v>5.24357</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>9.650870000000001</v>
+        <v>14.81158</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1.13237</v>
+        <v>35.71391</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>130.45857</v>
+        <v>705.18351</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>11.56807</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>72.39955</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>55.925</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1.62278</v>
+        <v>242.53767</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>6.62453</v>
+        <v>51.16221</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>0</v>
+        <v>8.74672</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>95.02203</v>
@@ -2252,106 +2323,121 @@
         <v>41.16219</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>559.6765499999999</v>
+        <v>825.87668</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>45</v>
+        <v>223.297</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>452.83727</v>
+        <v>9427.017820000001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>0</v>
+        <v>40.32297</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>375.0085</v>
+        <v>875.8443100000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1173.0748</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1722.36936</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>1006.602</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>2.16108</v>
+        <v>2.16163</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>0.001</v>
+        <v>2811.754</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>1.31471</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>0</v>
+        <v>1882.29412</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>7.556950000000001</v>
+        <v>8.02544</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>0.34782</v>
+        <v>0.34783</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>0</v>
+        <v>0.00132</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>0.40986</v>
+        <v>4.48838</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>0</v>
+        <v>568.0603000000001</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>20.1</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>518.4904799999999</v>
+        <v>2323.20763</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>247.03207</v>
+        <v>1429.5971</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>201.12138</v>
+        <v>1470.22378</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>712.6872099999999</v>
+        <v>2541.82247</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>683.7563400000001</v>
+        <v>1126.04644</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>308.36319</v>
+        <v>1372.02361</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>4022.733250000001</v>
+        <v>5600.64864</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>411.0799</v>
+        <v>1876.13416</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1092.09647</v>
+        <v>3266.48929</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>6424.91842</v>
+        <v>92118.06690000001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2426.04314</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>40159.66052999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>99989.008</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,137 +2516,157 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>47.73811</v>
+        <v>28584.91324</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>173.05563</v>
+        <v>1660.20515</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>118.83644</v>
+        <v>395.26987</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>107.50513</v>
+        <v>955.9324800000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>218.85604</v>
+        <v>244.70946</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>34.54636</v>
+        <v>550.2960099999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>171.9295</v>
+        <v>793.9850700000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>38.59398</v>
+        <v>52.99253</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>103.40071</v>
+        <v>124.82796</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>212.97434</v>
+        <v>480.12699</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>185.94508</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>3723.00247</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>326.64</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>903.4678800000002</v>
+        <v>3347.48006</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>585.97866</v>
+        <v>2616.40486</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>864.9528399999998</v>
+        <v>3925.14242</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>984.3308300000001</v>
+        <v>2277.78832</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>667.14013</v>
+        <v>1303.74716</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>548.7035100000001</v>
+        <v>1216.51364</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>5073.17253</v>
+        <v>5718.65066</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>921.1376100000001</v>
+        <v>1872.47492</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>769.2935500000001</v>
+        <v>3001.93842</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>4093.37264</v>
+        <v>8085.03974</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>3865.56633</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>10701.01296</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>10107.815</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>888.1368400000001</v>
+        <v>3330.70928</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>585.97766</v>
+        <v>2616.40386</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>852.12621</v>
+        <v>3755.08581</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>984.3308300000001</v>
+        <v>2277.78832</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>655.2261399999999</v>
+        <v>1291.83317</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>535.85704</v>
+        <v>1203.66717</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>5040.78024</v>
+        <v>5686.258370000001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>904.90118</v>
+        <v>1653.63372</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>739.5740700000001</v>
+        <v>2972.21894</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>3707.61131</v>
+        <v>7495.01298</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>3706.06316</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>10541.03726</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>10057.642</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>15.33104</v>
+        <v>16.77078</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>0.001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>12.82663</v>
+        <v>170.05661</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>0</v>
@@ -2570,448 +2681,506 @@
         <v>32.39229</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>16.23643</v>
+        <v>218.8412</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>29.71948</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>385.76133</v>
+        <v>590.02676</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>159.50317</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>159.9757</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>50.173</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>1970.41851</v>
+        <v>-25930.81308</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>5731.48352</v>
+        <v>5055.681820000001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>2608.45916</v>
+        <v>3296.258940000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>2884.37348</v>
+        <v>1636.72161</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1453.0327</v>
+        <v>6481.83016</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1943.38144</v>
+        <v>4854.628019999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1983.70275</v>
+        <v>5716.47642</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-1567.37036</v>
+        <v>-8946.97885</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-2675.88668</v>
+        <v>-713.6626300000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>26825.99932</v>
+        <v>28098.42678</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>97.83275</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-11513.90416</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>25469.965</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>746.27859</v>
+        <v>1202.1864</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>759.3838900000001</v>
+        <v>1531.86536</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>649.9808</v>
+        <v>1597.46013</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>651.79633</v>
+        <v>1622.80979</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>766.99038</v>
+        <v>1091.48556</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>677.12756</v>
+        <v>4896.61959</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>874.5873899999999</v>
+        <v>1181.46677</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1600.39831</v>
+        <v>6341.38917</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>2198.7667</v>
+        <v>3910.20249</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>2977.42505</v>
+        <v>3324.91192</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>4520.20311</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>6032.171939999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>12698.628</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>6.58689</v>
+        <v>14.58957</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>0.21785</v>
+        <v>6.49704</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>27.58199</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>0</v>
+        <v>18.7452</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>30.62422</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>2.50079</v>
+        <v>3.50079</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1.18247</v>
+        <v>3.68247</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>0</v>
+        <v>0.18556</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>15.15275</v>
+        <v>24.25788</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>8.30125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>35.70759</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>17.085</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>739.6917</v>
+        <v>1187.59683</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>759.1660400000001</v>
+        <v>1525.36832</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>622.39881</v>
+        <v>1569.87814</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>651.79633</v>
+        <v>1604.06459</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>736.36616</v>
+        <v>1060.86134</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>674.62677</v>
+        <v>4893.1188</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>873.4049199999999</v>
+        <v>1177.7843</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1600.39831</v>
+        <v>6341.20361</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>2198.7667</v>
+        <v>3910.20249</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>2962.2723</v>
+        <v>3300.65404</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>4511.901859999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>5996.464349999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>12681.543</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>750.3241400000001</v>
+        <v>3738.82579</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>850.7068200000001</v>
+        <v>2962.83787</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>5946.226539999999</v>
+        <v>7864.221940000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>516.0818</v>
+        <v>5659.583120000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>639.3757000000001</v>
+        <v>3110.58238</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>2384.90904</v>
+        <v>3399.35333</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>775.5758</v>
+        <v>1687.23097</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>6543.747139999999</v>
+        <v>10919.15543</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>4078.46316</v>
+        <v>9050.7158</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>8126.238189999999</v>
+        <v>22020.02247</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>3085.41248</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>7092.99551</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>7849.748</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>35.31233</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>0.001</v>
+        <v>1805.25233</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>13.76814</v>
+        <v>1146.48915</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>0</v>
+        <v>850.78589</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>0</v>
+        <v>2274.84998</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>3.17862</v>
+        <v>605.2220599999999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>25.15038</v>
+        <v>691.22616</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>3.57259</v>
+        <v>747.9888400000001</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1.91465</v>
+        <v>791.8482700000001</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>0</v>
+        <v>806.92786</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>6.425260000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>506.6764499999999</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>263.189</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>27.91647</v>
+        <v>68.95407</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>23.53666</v>
+        <v>28.54585</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>49.95443</v>
+        <v>100.62239</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>52.39800999999999</v>
+        <v>98.8685</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>26.80451</v>
+        <v>105.15364</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>13.14057</v>
+        <v>23.51736</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>8.84281</v>
+        <v>12.72309</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>147.78009</v>
+        <v>223.25649</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>161.35724</v>
+        <v>211.24147</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>31.92998</v>
+        <v>147.88514</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>86.76922999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>109.67017</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>498.032</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>687.0953400000001</v>
+        <v>3634.55939</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>827.1691599999999</v>
+        <v>1129.03969</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>5882.503970000001</v>
+        <v>6617.1104</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>463.68379</v>
+        <v>4709.928730000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>612.5711900000001</v>
+        <v>730.57876</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>2368.58985</v>
+        <v>2770.61391</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>741.5826099999999</v>
+        <v>983.28172</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>6392.394459999999</v>
+        <v>9947.910099999999</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>3915.19127</v>
+        <v>8047.626060000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>8094.308209999999</v>
+        <v>21065.20947</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2992.21799</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>6476.64889</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>7088.527</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1966.37296</v>
+        <v>-28467.45247</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>5640.16059</v>
+        <v>3624.70931</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-2687.78658</v>
+        <v>-2970.502870000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>3020.08801</v>
+        <v>-2400.05172</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1580.64738</v>
+        <v>4462.73334</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>235.59996</v>
+        <v>6351.89428</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>2082.71434</v>
+        <v>5210.712219999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-6510.71919</v>
+        <v>-13524.74511</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-4555.58314</v>
+        <v>-5854.175939999999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>21677.18618</v>
+        <v>9403.316229999999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1532.623380000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-12574.72773</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>30318.845</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1147.02545</v>
+        <v>1266.83967</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1447.75665</v>
+        <v>1807.71456</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>1389.66</v>
+        <v>1579.11768</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1246.20227</v>
+        <v>1824.98233</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1157.0328</v>
+        <v>1792.32816</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>978.8123799999998</v>
+        <v>1765.62008</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1124.70133</v>
+        <v>2695.52859</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1400.01659</v>
+        <v>2569.21201</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1277.04866</v>
+        <v>2456.11686</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>5140.74892</v>
+        <v>7971.606120000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>4417.610529999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>10767.90847</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>18708.897</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>819.3475099999999</v>
+        <v>-29734.29214</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>4192.40394</v>
+        <v>1816.99475</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-4077.44658</v>
+        <v>-4549.620550000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1773.88574</v>
+        <v>-4225.03405</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>423.61458</v>
+        <v>2670.40518</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-743.21242</v>
+        <v>4586.274199999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>958.0130099999999</v>
+        <v>2515.18363</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-7910.735779999999</v>
+        <v>-16093.95712</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-5832.631800000001</v>
+        <v>-8310.292800000001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>16536.43726</v>
+        <v>1431.710110000002</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-2884.98715</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-23342.63620000001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>11609.948</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>439</v>
+        <v>476</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>440</v>
+        <v>478</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>431</v>
+        <v>503</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>522</v>
+        <v>617</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>578</v>
+        <v>679</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>625</v>
+        <v>795</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>934</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>